--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N2">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O2">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P2">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q2">
-        <v>2.2649188329</v>
+        <v>0.613033045632</v>
       </c>
       <c r="R2">
-        <v>20.3842694961</v>
+        <v>5.517297410688</v>
       </c>
       <c r="S2">
-        <v>0.0007256715837114225</v>
+        <v>0.0001895496749260468</v>
       </c>
       <c r="T2">
-        <v>0.0008105588775874074</v>
+        <v>0.0002135745460755235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H3">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I3">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J3">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P3">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q3">
-        <v>26.61623655786</v>
+        <v>9.303631459164</v>
       </c>
       <c r="R3">
-        <v>239.54612902074</v>
+        <v>83.732683132476</v>
       </c>
       <c r="S3">
-        <v>0.008527743358754128</v>
+        <v>0.002876680680236767</v>
       </c>
       <c r="T3">
-        <v>0.009525298000333441</v>
+        <v>0.003241291607202701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N4">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O4">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P4">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q4">
-        <v>57.67723808099999</v>
+        <v>27.960744283416</v>
       </c>
       <c r="R4">
-        <v>519.0951427289999</v>
+        <v>251.646698550744</v>
       </c>
       <c r="S4">
-        <v>0.01847957290758595</v>
+        <v>0.008645455620011311</v>
       </c>
       <c r="T4">
-        <v>0.02064126832369412</v>
+        <v>0.009741242027349271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H5">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I5">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J5">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N5">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O5">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P5">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q5">
-        <v>22.53510243396</v>
+        <v>8.70132060882</v>
       </c>
       <c r="R5">
-        <v>135.21061460376</v>
+        <v>52.20792365291999</v>
       </c>
       <c r="S5">
-        <v>0.007220163139979903</v>
+        <v>0.002690446305596431</v>
       </c>
       <c r="T5">
-        <v>0.005376506822189315</v>
+        <v>0.002020968377401201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H6">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I6">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J6">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N6">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O6">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P6">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q6">
-        <v>70.49047301729999</v>
+        <v>19.601037637272</v>
       </c>
       <c r="R6">
-        <v>634.4142571556999</v>
+        <v>176.409338735448</v>
       </c>
       <c r="S6">
-        <v>0.0225848858016405</v>
+        <v>0.006060636272107966</v>
       </c>
       <c r="T6">
-        <v>0.02522681071813526</v>
+        <v>0.006828804329257348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
         <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N7">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O7">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P7">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q7">
-        <v>22.57972353523334</v>
+        <v>17.48412940892444</v>
       </c>
       <c r="R7">
-        <v>203.2175118171</v>
+        <v>157.35716468032</v>
       </c>
       <c r="S7">
-        <v>0.007234459575135822</v>
+        <v>0.005406088740958354</v>
       </c>
       <c r="T7">
-        <v>0.008080729030593379</v>
+        <v>0.006091294798287833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
         <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J8">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P8">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q8">
-        <v>265.3460487391267</v>
+        <v>265.3460487391266</v>
       </c>
       <c r="R8">
-        <v>2388.114438652141</v>
+        <v>2388.11443865214</v>
       </c>
       <c r="S8">
-        <v>0.08501588870341296</v>
+        <v>0.08204493646759292</v>
       </c>
       <c r="T8">
-        <v>0.09496084023587442</v>
+        <v>0.09244389403831922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
         <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J9">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N9">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O9">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P9">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q9">
-        <v>575.0034267132222</v>
+        <v>797.459900252351</v>
       </c>
       <c r="R9">
-        <v>5175.030840419</v>
+        <v>7177.13910227116</v>
       </c>
       <c r="S9">
-        <v>0.18422896275193</v>
+        <v>0.2465744154192468</v>
       </c>
       <c r="T9">
-        <v>0.2057796179692769</v>
+        <v>0.2778270069181042</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
         <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J10">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N10">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O10">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P10">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q10">
-        <v>224.6598754028933</v>
+        <v>248.1677238073</v>
       </c>
       <c r="R10">
-        <v>1347.95925241736</v>
+        <v>1489.0063428438</v>
       </c>
       <c r="S10">
-        <v>0.07198018984692971</v>
+        <v>0.07673340239972737</v>
       </c>
       <c r="T10">
-        <v>0.05360017139108256</v>
+        <v>0.05763942562900266</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
         <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J11">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N11">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O11">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P11">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q11">
-        <v>702.7427956703001</v>
+        <v>559.0352445779689</v>
       </c>
       <c r="R11">
-        <v>6324.6851610327</v>
+        <v>5031.317201201719</v>
       </c>
       <c r="S11">
-        <v>0.2251561822296768</v>
+        <v>0.1728535674169304</v>
       </c>
       <c r="T11">
-        <v>0.2514944038686903</v>
+        <v>0.1947622553982701</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H12">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I12">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J12">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N12">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O12">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P12">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q12">
-        <v>2.542237217131667</v>
+        <v>2.516424063569778</v>
       </c>
       <c r="R12">
-        <v>22.880134954185</v>
+        <v>22.647816572128</v>
       </c>
       <c r="S12">
-        <v>0.0008145233642496309</v>
+        <v>0.00077807773434789</v>
       </c>
       <c r="T12">
-        <v>0.0009098043229393546</v>
+        <v>0.0008766968288901413</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H13">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I13">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J13">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P13">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q13">
-        <v>29.87514880201433</v>
+        <v>38.19024479877566</v>
       </c>
       <c r="R13">
-        <v>268.876339218129</v>
+        <v>343.712203188981</v>
       </c>
       <c r="S13">
-        <v>0.009571886740424014</v>
+        <v>0.01180841479677684</v>
       </c>
       <c r="T13">
-        <v>0.01069158273089721</v>
+        <v>0.01330509709962342</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H14">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I14">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J14">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N14">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O14">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P14">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q14">
-        <v>64.73928297162776</v>
+        <v>114.7753620321904</v>
       </c>
       <c r="R14">
-        <v>582.6535467446498</v>
+        <v>1032.978258289714</v>
       </c>
       <c r="S14">
-        <v>0.02074222586696875</v>
+        <v>0.03548851520767905</v>
       </c>
       <c r="T14">
-        <v>0.02316860091366154</v>
+        <v>0.03998658150868104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H15">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I15">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J15">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N15">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O15">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P15">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q15">
-        <v>25.29431751253266</v>
+        <v>35.717834007295</v>
       </c>
       <c r="R15">
-        <v>151.7659050751959</v>
+        <v>214.30700404377</v>
       </c>
       <c r="S15">
-        <v>0.008104205405328784</v>
+        <v>0.01104394595590764</v>
       </c>
       <c r="T15">
-        <v>0.006034810406000746</v>
+        <v>0.008295822701308037</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H16">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I16">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J16">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N16">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O16">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P16">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q16">
-        <v>79.12138013720499</v>
+        <v>80.45981066243755</v>
       </c>
       <c r="R16">
-        <v>712.0924212348449</v>
+        <v>724.138295961938</v>
       </c>
       <c r="S16">
-        <v>0.02535019639360915</v>
+        <v>0.02487815471668958</v>
       </c>
       <c r="T16">
-        <v>0.02831560060590084</v>
+        <v>0.02803138862088067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H17">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I17">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J17">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N17">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O17">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P17">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q17">
-        <v>7.752039475240001</v>
+        <v>6.453941498410667</v>
       </c>
       <c r="R17">
-        <v>46.51223685144001</v>
+        <v>38.723648990464</v>
       </c>
       <c r="S17">
-        <v>0.002483724662127549</v>
+        <v>0.001995557208101683</v>
       </c>
       <c r="T17">
-        <v>0.001849509814594825</v>
+        <v>0.001498992194893287</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H18">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I18">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J18">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P18">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q18">
-        <v>91.09823870141601</v>
+        <v>97.94756349278799</v>
       </c>
       <c r="R18">
-        <v>546.5894322084961</v>
+        <v>587.6853809567281</v>
       </c>
       <c r="S18">
-        <v>0.02918753740377261</v>
+        <v>0.03028536381870891</v>
       </c>
       <c r="T18">
-        <v>0.02173454961223023</v>
+        <v>0.02274929718849483</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H19">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I19">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J19">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N19">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O19">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P19">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q19">
-        <v>197.4093817102667</v>
+        <v>294.3675045627386</v>
       </c>
       <c r="R19">
-        <v>1184.4562902616</v>
+        <v>1766.205027376432</v>
       </c>
       <c r="S19">
-        <v>0.06324923285739081</v>
+        <v>0.09101836384877934</v>
       </c>
       <c r="T19">
-        <v>0.04709864934671668</v>
+        <v>0.06836978486378001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H20">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I20">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J20">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N20">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O20">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P20">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q20">
-        <v>77.129917906576</v>
+        <v>91.60650403494</v>
       </c>
       <c r="R20">
-        <v>308.519671626304</v>
+        <v>366.42601613976</v>
       </c>
       <c r="S20">
-        <v>0.02471213928983574</v>
+        <v>0.02832470971125751</v>
       </c>
       <c r="T20">
-        <v>0.01226795783851354</v>
+        <v>0.01418434864789224</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H21">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I21">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J21">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N21">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O21">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P21">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q21">
-        <v>241.26468530388</v>
+        <v>206.3574730929573</v>
       </c>
       <c r="R21">
-        <v>1447.58811182328</v>
+        <v>1238.144838557744</v>
       </c>
       <c r="S21">
-        <v>0.07730030928036996</v>
+        <v>0.06380568261700367</v>
       </c>
       <c r="T21">
-        <v>0.05756180741982651</v>
+        <v>0.04792857846641761</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H22">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I22">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J22">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N22">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O22">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P22">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q22">
-        <v>4.224934125876668</v>
+        <v>2.890932591950222</v>
       </c>
       <c r="R22">
-        <v>38.02440713289</v>
+        <v>26.018393327552</v>
       </c>
       <c r="S22">
-        <v>0.001353653205433309</v>
+        <v>0.0008938756840952174</v>
       </c>
       <c r="T22">
-        <v>0.001512000259438227</v>
+        <v>0.001007171832676936</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H23">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I23">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J23">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>63.763683</v>
       </c>
       <c r="O23">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P23">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q23">
-        <v>49.64939339204733</v>
+        <v>43.87393404063933</v>
       </c>
       <c r="R23">
-        <v>446.844540528426</v>
+        <v>394.865406365754</v>
       </c>
       <c r="S23">
-        <v>0.01590748127913561</v>
+        <v>0.01356581018655595</v>
       </c>
       <c r="T23">
-        <v>0.0177682996830511</v>
+        <v>0.01528523725440728</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H24">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I24">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J24">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N24">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O24">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P24">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q24">
-        <v>107.5899621280111</v>
+        <v>131.8568836053196</v>
       </c>
       <c r="R24">
-        <v>968.3096591520999</v>
+        <v>1186.711952447876</v>
       </c>
       <c r="S24">
-        <v>0.03447142435074314</v>
+        <v>0.04077011769958208</v>
       </c>
       <c r="T24">
-        <v>0.03850380758699919</v>
+        <v>0.04593761178715366</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H25">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I25">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J25">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N25">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O25">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P25">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q25">
-        <v>42.03652772027066</v>
+        <v>41.03356502603</v>
       </c>
       <c r="R25">
-        <v>252.219166321624</v>
+        <v>246.20139015618</v>
       </c>
       <c r="S25">
-        <v>0.01346834738684199</v>
+        <v>0.01268756874879762</v>
       </c>
       <c r="T25">
-        <v>0.0100292279004063</v>
+        <v>0.009530454175609153</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H26">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I26">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J26">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N26">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O26">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P26">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q26">
-        <v>131.49151337077</v>
+        <v>92.43429688723245</v>
       </c>
       <c r="R26">
-        <v>1183.42362033693</v>
+        <v>831.908671985092</v>
       </c>
       <c r="S26">
-        <v>0.04212939261501177</v>
+        <v>0.02858066306838261</v>
       </c>
       <c r="T26">
-        <v>0.04705758632136672</v>
+        <v>0.03220317916002136</v>
       </c>
     </row>
   </sheetData>
